--- a/ger_full_report.xlsx
+++ b/ger_full_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattv\OneDrive\Documents\DISSY\ger_full_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattv\OneDrive\Documents\DISSY\diss stims\all code for git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0BFAAE-07F5-46A5-9A81-D31BD8378D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72AF4B-55F7-4A55-8394-6830CDCDA8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="147">
   <si>
     <t>Response ID</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Nicht verständlich</t>
   </si>
   <si>
-    <t>Muttersprache</t>
-  </si>
-  <si>
     <t>R_zeRf40ghPBPfLGx</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>16 jahre oder so? Lange her.</t>
   </si>
   <si>
-    <t>keine Ahnung.</t>
-  </si>
-  <si>
     <t>R_1ILh8ubsjGyZ0ZV</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
   </si>
   <si>
     <t>Zu viele....vllt 17?</t>
-  </si>
-  <si>
-    <t>6?</t>
   </si>
   <si>
     <t>R_3JjRRxeE2SDB4Sf</t>
@@ -523,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -536,6 +527,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,11 +842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI35"/>
+  <dimension ref="A1:BI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X35"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,184 +882,184 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -1075,16 +1067,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3">
@@ -1140,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>4</v>
@@ -1244,16 +1236,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3">
@@ -1309,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>9</v>
@@ -1389,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1450,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>4</v>
@@ -1560,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1619,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="X5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>4</v>
@@ -1729,7 +1721,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1790,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="X6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>9</v>
@@ -1858,16 +1850,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3">
@@ -1923,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="X7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>19</v>
@@ -1997,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -2058,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="X8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>9</v>
@@ -2162,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -2223,7 +2215,7 @@
         <v>23</v>
       </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>13</v>
@@ -2321,16 +2313,16 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3">
@@ -2386,7 +2378,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>9</v>
@@ -2487,7 +2479,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -2548,7 +2540,7 @@
         <v>27</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>5</v>
@@ -2655,7 +2647,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -2716,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>9</v>
@@ -2814,19 +2806,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -2881,7 +2873,7 @@
         <v>31</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>9</v>
@@ -2982,19 +2974,19 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
@@ -3049,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>9</v>
@@ -3144,19 +3136,19 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -3211,7 +3203,7 @@
         <v>34</v>
       </c>
       <c r="X15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>4</v>
@@ -3315,7 +3307,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3374,7 +3366,7 @@
         <v>36</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>5</v>
@@ -3475,16 +3467,16 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="3">
@@ -3540,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="X17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>5</v>
@@ -3638,7 +3630,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
@@ -3699,7 +3691,7 @@
         <v>34</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>4</v>
@@ -3806,7 +3798,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -3814,7 +3806,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -3869,7 +3861,7 @@
         <v>31</v>
       </c>
       <c r="X19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>5</v>
@@ -3970,13 +3962,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4033,7 +4025,7 @@
         <v>31</v>
       </c>
       <c r="X20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>4</v>
@@ -4134,16 +4126,16 @@
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3">
@@ -4199,14 +4191,10 @@
         <v>43</v>
       </c>
       <c r="X21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1" t="s">
         <v>11</v>
       </c>
@@ -4258,19 +4246,19 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3">
@@ -4326,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>19</v>
@@ -4433,10 +4421,10 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -4494,17 +4482,15 @@
         <v>2</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
         <v>10</v>
       </c>
@@ -4562,16 +4548,16 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4628,7 +4614,7 @@
         <v>27</v>
       </c>
       <c r="X24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>4</v>
@@ -4735,16 +4721,16 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4801,7 +4787,7 @@
         <v>31</v>
       </c>
       <c r="X25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>9</v>
@@ -4905,10 +4891,10 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
@@ -4969,7 +4955,7 @@
         <v>31</v>
       </c>
       <c r="X26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>9</v>
@@ -5076,19 +5062,19 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3">
@@ -5144,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="X27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>5</v>
@@ -5251,20 +5237,20 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
@@ -5319,7 +5305,7 @@
         <v>31</v>
       </c>
       <c r="X28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>9</v>
@@ -5417,10 +5403,10 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -5478,10 +5464,10 @@
         <v>2</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>4</v>
@@ -5591,16 +5577,16 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -5657,7 +5643,7 @@
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>5</v>
@@ -5764,22 +5750,22 @@
     </row>
     <row r="31" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
@@ -5831,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>9</v>
@@ -5905,22 +5891,22 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -5972,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>9</v>
@@ -6046,16 +6032,16 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6112,7 +6098,7 @@
         <v>27</v>
       </c>
       <c r="X33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>5</v>
@@ -6216,10 +6202,10 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>39</v>
@@ -6277,16 +6263,16 @@
         <v>2</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>11</v>
@@ -6372,19 +6358,19 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3">
@@ -6437,10 +6423,10 @@
         <v>2</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>5</v>
@@ -6547,13 +6533,16 @@
       <c r="BI35">
         <v>7.53</v>
       </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="Y36" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BI36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A7 L2:L7 Q2:Q7 V2:V7 W2:W7 Y2:Y7 Z2:Z7 AA2:AA7 AB2:AB7 AC2:AC7 AD2:AD7 AE2:AE7 A8:A35 L8:L35 Q8:Q35 V8:V35 W8:W35 Y8:Y35 Z8:Z35 AA8:AA35 AB8:AB35 AC8:AC35 AD8:AD35 AE8:AE35 D32" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A7 L2:L7 Q2:Q7 V2:V7 W2:W7 Y2:Y7 Z2:Z7 AA2:AA7 AB2:AB7 AC2:AC7 AD2:AD7 AE2:AE7 A8:A35 L8:L35 Q8:Q35 V8:V35 W8:W35 Y8:Y20 Z8:Z20 AA8:AA35 AB8:AB35 AC8:AC35 AD8:AD35 AE8:AE35 D32 Y22:Y35 Z22 Z24:Z33 Z35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>